--- a/diagram/right_hand_diagram.xlsx
+++ b/diagram/right_hand_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agiat_Ikazinat\Agiat_Ikazinat\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B6171E-4FE1-48DC-9D12-C27E6FB223AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E998F9-6C6C-4B60-8B4C-2473258B2E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="4464" windowWidth="17280" windowHeight="8880" xr2:uid="{11CC318E-415D-4924-87B5-CE0118880A54}"/>
+    <workbookView xWindow="5376" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{11CC318E-415D-4924-87B5-CE0118880A54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -600,7 +600,13 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
